--- a/public/data/download/NHANDULIEU.xlsx
+++ b/public/data/download/NHANDULIEU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ADF19E-30A9-4B0F-8B94-925DE15A18DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2265C0-76F1-4501-9D0B-5872BF52DAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DANHMUC" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DANHSACH!$A$3:$J$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DANHSACH!$A$3:$G$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -274,15 +274,6 @@
     <t>Đơn vị công tác</t>
   </si>
   <si>
-    <t>Lựa chọn Danh hiệu thi đua/Hình thức khen thưởng</t>
-  </si>
-  <si>
-    <t>Lựa chọn Phân loại đối tượng</t>
-  </si>
-  <si>
-    <t>Lựa chọn phân loại khen thưởng</t>
-  </si>
-  <si>
     <t>TAPTHE</t>
   </si>
   <si>
@@ -308,6 +299,9 @@
   </si>
   <si>
     <t>Sở Y tế</t>
+  </si>
+  <si>
+    <t>Lĩnh vực hoạt động</t>
   </si>
 </sst>
 </file>
@@ -388,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -432,25 +426,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,27 +719,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.8984375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="44.296875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="34.19921875" style="20" customWidth="1"/>
-    <col min="8" max="9" width="24.3984375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="17.8984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.69921875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.8984375" style="20"/>
+    <col min="1" max="1" width="5.59765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.296875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" style="18" customWidth="1"/>
+    <col min="7" max="8" width="21.296875" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="8.8984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>74</v>
       </c>
@@ -761,248 +746,196 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="3" spans="1:11" s="24" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
